--- a/solutions/dell/cyber-security/safeid-authentication/presales/infrastructure-costs.xlsx
+++ b/solutions/dell/cyber-security/safeid-authentication/presales/infrastructure-costs.xlsx
@@ -14,9 +14,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sizing Guidelines'!$A$2:$F$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Credits'!$A$2:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$9</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -836,7 +836,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 22, 2025</t>
+          <t>November 24, 2025</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1248,7 +1248,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B3" s="44" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="43" t="inlineStr">
         <is>
-          <t>Integration</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B7" s="44" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="8" ht="26" customHeight="1">
       <c r="A8" s="47" t="inlineStr">
         <is>
-          <t>Integration</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B8" s="48" t="inlineStr">
@@ -1518,7 +1518,7 @@
     <row r="9" ht="26" customHeight="1">
       <c r="A9" s="43" t="inlineStr">
         <is>
-          <t>Integration</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B9" s="44" t="inlineStr">
@@ -1651,216 +1651,36 @@
       </c>
     </row>
     <row r="12" ht="26" customHeight="1">
-      <c r="A12" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B12" s="48" t="inlineStr">
-        <is>
-          <t>MFA Implementation Services</t>
-        </is>
-      </c>
-      <c r="C12" s="48" t="inlineStr">
-        <is>
-          <t>Installation configuration and AD integration</t>
-        </is>
-      </c>
-      <c r="D12" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="48" t="inlineStr">
-        <is>
-          <t>Project</t>
-        </is>
-      </c>
-      <c r="F12" s="50" t="n">
-        <v>25000</v>
-      </c>
-      <c r="G12" s="50" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H12" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="50" t="n">
-        <v>25000</v>
-      </c>
-      <c r="K12" s="48" t="inlineStr">
-        <is>
-          <t>Implementation and deployment services</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="26" customHeight="1">
-      <c r="A13" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B13" s="44" t="inlineStr">
-        <is>
-          <t>User Enrollment Assistance</t>
-        </is>
-      </c>
-      <c r="C13" s="44" t="inlineStr">
-        <is>
-          <t>IT-assisted enrollment for initial 500 users</t>
-        </is>
-      </c>
-      <c r="D13" s="45" t="n">
-        <v>500</v>
-      </c>
-      <c r="E13" s="44" t="inlineStr">
-        <is>
-          <t>Users</t>
-        </is>
-      </c>
-      <c r="F13" s="46" t="n">
-        <v>10</v>
-      </c>
-      <c r="G13" s="46" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H13" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="46" t="n">
-        <v>5000</v>
-      </c>
-      <c r="K13" s="44" t="inlineStr">
-        <is>
-          <t>Help desk enrollment support</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="26" customHeight="1">
-      <c r="A14" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B14" s="48" t="inlineStr">
-        <is>
-          <t>Administrator Training</t>
-        </is>
-      </c>
-      <c r="C14" s="48" t="inlineStr">
-        <is>
-          <t>2-day MFA administration and policy management training</t>
-        </is>
-      </c>
-      <c r="D14" s="49" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="48" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-      <c r="F14" s="50" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G14" s="50" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H14" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="50" t="n">
-        <v>5000</v>
-      </c>
-      <c r="K14" s="48" t="inlineStr">
-        <is>
-          <t>IT team training on SafeID platform</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="26" customHeight="1">
-      <c r="A15" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B15" s="44" t="inlineStr">
-        <is>
-          <t>User Awareness Training</t>
-        </is>
-      </c>
-      <c r="C15" s="44" t="inlineStr">
-        <is>
-          <t>End-user MFA training materials and video production</t>
-        </is>
-      </c>
-      <c r="D15" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="44" t="inlineStr">
-        <is>
-          <t>Project</t>
-        </is>
-      </c>
-      <c r="F15" s="46" t="n">
-        <v>8000</v>
-      </c>
-      <c r="G15" s="46" t="n">
-        <v>8000</v>
-      </c>
-      <c r="H15" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="46" t="n">
-        <v>8000</v>
-      </c>
-      <c r="K15" s="44" t="inlineStr">
-        <is>
-          <t>User communication and training content</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="26" customHeight="1">
-      <c r="A16" s="51" t="inlineStr">
+      <c r="A12" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B16" s="52" t="n"/>
-      <c r="C16" s="52" t="n"/>
-      <c r="D16" s="52" t="n"/>
-      <c r="E16" s="52" t="n"/>
-      <c r="F16" s="52" t="n"/>
-      <c r="G16" s="53">
-        <f>SUM(G3:G15)</f>
-        <v/>
-      </c>
-      <c r="H16" s="53">
-        <f>SUM(H3:H15)</f>
-        <v/>
-      </c>
-      <c r="I16" s="53">
-        <f>SUM(I3:I15)</f>
-        <v/>
-      </c>
-      <c r="J16" s="53">
-        <f>SUM(J3:J15)</f>
-        <v/>
-      </c>
-      <c r="K16" s="52" t="n"/>
+      <c r="B12" s="52" t="n"/>
+      <c r="C12" s="52" t="n"/>
+      <c r="D12" s="52" t="n"/>
+      <c r="E12" s="52" t="n"/>
+      <c r="F12" s="52" t="n"/>
+      <c r="G12" s="53">
+        <f>SUM(G3:G11)</f>
+        <v/>
+      </c>
+      <c r="H12" s="53">
+        <f>SUM(H3:H11)</f>
+        <v/>
+      </c>
+      <c r="I12" s="53">
+        <f>SUM(I3:I11)</f>
+        <v/>
+      </c>
+      <c r="J12" s="53">
+        <f>SUM(J3:J11)</f>
+        <v/>
+      </c>
+      <c r="K12" s="52" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K16"/>
+  <autoFilter ref="A2:K12"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
@@ -1993,7 +1813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2058,7 +1878,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B3" s="46">
@@ -2120,7 +1940,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="43" t="inlineStr">
         <is>
-          <t>Integration</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B5" s="46">
@@ -2180,71 +2000,71 @@
       </c>
     </row>
     <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B7" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A7,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C7" s="46">
-        <f>SUMIF(Credits!$A:$A,A7,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D7" s="46">
-        <f>B7+C7</f>
-        <v/>
-      </c>
-      <c r="E7" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A7,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F7" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A7,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G7" s="46">
-        <f>D7+E7+F7</f>
+      <c r="A7" s="51" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B7" s="53">
+        <f>SUM(B3:B6)</f>
+        <v/>
+      </c>
+      <c r="C7" s="53">
+        <f>SUM(C3:C6)</f>
+        <v/>
+      </c>
+      <c r="D7" s="53">
+        <f>SUM(D3:D6)</f>
+        <v/>
+      </c>
+      <c r="E7" s="53">
+        <f>SUM(E3:E6)</f>
+        <v/>
+      </c>
+      <c r="F7" s="53">
+        <f>SUM(F3:F6)</f>
+        <v/>
+      </c>
+      <c r="G7" s="53">
+        <f>SUM(G3:G6)</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1">
-      <c r="A8" s="51" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="B8" s="53">
-        <f>SUM(B3:B7)</f>
-        <v/>
-      </c>
-      <c r="C8" s="53">
-        <f>SUM(C3:C7)</f>
-        <v/>
-      </c>
-      <c r="D8" s="53">
-        <f>SUM(D3:D7)</f>
-        <v/>
-      </c>
-      <c r="E8" s="53">
-        <f>SUM(E3:E7)</f>
-        <v/>
-      </c>
-      <c r="F8" s="53">
-        <f>SUM(F3:F7)</f>
-        <v/>
-      </c>
-      <c r="G8" s="53">
-        <f>SUM(G3:G7)</f>
+      <c r="A8" s="47" t="inlineStr">
+        <is>
+          <t>Password Reset Savings</t>
+        </is>
+      </c>
+      <c r="B8" s="50">
+        <f>SUMIF('Infrastructure Costs'!$A:$A,A8,'Infrastructure Costs'!$G:$G)</f>
+        <v/>
+      </c>
+      <c r="C8" s="50">
+        <f>SUMIF(Credits!$A:$A,A8,Credits!$C:$C)</f>
+        <v/>
+      </c>
+      <c r="D8" s="50">
+        <f>B8+C8</f>
+        <v/>
+      </c>
+      <c r="E8" s="50">
+        <f>SUMIF('Infrastructure Costs'!$A:$A,A8,'Infrastructure Costs'!$H:$H)</f>
+        <v/>
+      </c>
+      <c r="F8" s="50">
+        <f>SUMIF('Infrastructure Costs'!$A:$A,A8,'Infrastructure Costs'!$I:$I)</f>
+        <v/>
+      </c>
+      <c r="G8" s="50">
+        <f>D8+E8+F8</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1">
       <c r="A9" s="43" t="inlineStr">
         <is>
-          <t>Password Reset Savings</t>
+          <t>Net Investment After Savings</t>
         </is>
       </c>
       <c r="B9" s="46">
@@ -2272,39 +2092,8 @@
         <v/>
       </c>
     </row>
-    <row r="10" ht="26" customHeight="1">
-      <c r="A10" s="47" t="inlineStr">
-        <is>
-          <t>Net Investment After Savings</t>
-        </is>
-      </c>
-      <c r="B10" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A10,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C10" s="50">
-        <f>SUMIF(Credits!$A:$A,A10,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D10" s="50">
-        <f>B10+C10</f>
-        <v/>
-      </c>
-      <c r="E10" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A10,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F10" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A10,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G10" s="50">
-        <f>D10+E10+F10</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:G10"/>
+  <autoFilter ref="A2:G9"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>

--- a/solutions/dell/cyber-security/safeid-authentication/presales/infrastructure-costs.xlsx
+++ b/solutions/dell/cyber-security/safeid-authentication/presales/infrastructure-costs.xlsx
@@ -1813,7 +1813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1940,7 +1940,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="43" t="inlineStr">
         <is>
-          <t>Software Licenses</t>
+          <t>Support &amp; Maintenance</t>
         </is>
       </c>
       <c r="B5" s="46">
@@ -1971,7 +1971,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="47" t="inlineStr">
         <is>
-          <t>Support &amp; Maintenance</t>
+          <t>Risk Mitigation</t>
         </is>
       </c>
       <c r="B6" s="50">
@@ -2002,38 +2002,38 @@
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="51" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Operational Savings</t>
         </is>
       </c>
       <c r="B7" s="53">
-        <f>SUM(B3:B6)</f>
+        <f>SUMIF('Infrastructure Costs'!$A:$A,A7,'Infrastructure Costs'!$G:$G)</f>
         <v/>
       </c>
       <c r="C7" s="53">
-        <f>SUM(C3:C6)</f>
+        <f>SUMIF(Credits!$A:$A,A7,Credits!$C:$C)</f>
         <v/>
       </c>
       <c r="D7" s="53">
-        <f>SUM(D3:D6)</f>
+        <f>B7+C7</f>
         <v/>
       </c>
       <c r="E7" s="53">
-        <f>SUM(E3:E6)</f>
+        <f>SUMIF('Infrastructure Costs'!$A:$A,A7,'Infrastructure Costs'!$H:$H)</f>
         <v/>
       </c>
       <c r="F7" s="53">
-        <f>SUM(F3:F6)</f>
+        <f>SUMIF('Infrastructure Costs'!$A:$A,A7,'Infrastructure Costs'!$I:$I)</f>
         <v/>
       </c>
       <c r="G7" s="53">
-        <f>SUM(G3:G6)</f>
+        <f>D7+E7+F7</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1">
       <c r="A8" s="47" t="inlineStr">
         <is>
-          <t>Password Reset Savings</t>
+          <t>Compliance Enablement</t>
         </is>
       </c>
       <c r="B8" s="50">
@@ -2064,34 +2064,35 @@
     <row r="9" ht="26" customHeight="1">
       <c r="A9" s="43" t="inlineStr">
         <is>
-          <t>Net Investment After Savings</t>
+          <t>TOTAL</t>
         </is>
       </c>
       <c r="B9" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A9,'Infrastructure Costs'!$G:$G)</f>
+        <f>SUM(B3:B8)</f>
         <v/>
       </c>
       <c r="C9" s="46">
-        <f>SUMIF(Credits!$A:$A,A9,Credits!$C:$C)</f>
+        <f>SUM(C3:C8)</f>
         <v/>
       </c>
       <c r="D9" s="46">
-        <f>B9+C9</f>
+        <f>SUM(D3:D8)</f>
         <v/>
       </c>
       <c r="E9" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A9,'Infrastructure Costs'!$H:$H)</f>
+        <f>SUM(E3:E8)</f>
         <v/>
       </c>
       <c r="F9" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A9,'Infrastructure Costs'!$I:$I)</f>
+        <f>SUM(F3:F8)</f>
         <v/>
       </c>
       <c r="G9" s="46">
-        <f>D9+E9+F9</f>
-        <v/>
-      </c>
-    </row>
+        <f>SUM(G3:G8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10"/>
   </sheetData>
   <autoFilter ref="A2:G9"/>
   <mergeCells count="1">
